--- a/biology/Zoologie/Borojevia/Borojevia.xlsx
+++ b/biology/Zoologie/Borojevia/Borojevia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Borojevia est un genre d'éponges calcaires marines de la famille Clathrinidae. Le genre est nommé en hommage au biologiste croate Radovan Borojevic (d)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Borojevia est un genre d'éponges calcaires marines de la famille Clathrinidae. Le genre est nommé en hommage au biologiste croate Radovan Borojevic (d).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 janvier 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 janvier 2021) :
 Borojevia aspina (Klautau, Solé-Cava &amp; Borojevic, 1994)
 Borojevia brasiliensis (Solé-Cava, Klautau, Boury-Esnault, Borojevic &amp; Thorpe, 1991)
 Borojevia cerebrum (Haeckel, 1872)
@@ -553,7 +567,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Michelle Klautau, Fernanda Azevedo, Báslavi Cóndor Luján, Hans Tore Rapp, Allen Gilbert Collins et Cláudia A. M. Russo, « A molecular phylogeny for the order Clathrinida rekindles and refines Haeckel's taxonomic proposal for calcareous sponges », Integrative and Comparative Biology, OUP, vol. 53, no 3,‎ 23 mai 2013, p. 447-461 (ISSN 1540-7063 et 1557-7023, PMID 23704365, DOI 10.1093/ICB/ICT039, lire en ligne)</t>
         </is>
